--- a/biology/Botanique/Général_Gallieni_(rose)/Général_Gallieni_(rose).xlsx
+++ b/biology/Botanique/Général_Gallieni_(rose)/Général_Gallieni_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9n%C3%A9ral_Gallieni_(rose)</t>
+          <t>Général_Gallieni_(rose)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Général Gallieni' est un cultivar de rosier thé obtenu en 1899 par Gilbert Nabonnand dans sa pépinière de Golfe-Juan. Il est baptisé en hommage au général Joseph Gallieni (1849-1916), à l'époque gouverneur de Madagascar, et élevé à la dignité de maréchal de France en 1921 à titre posthume. Il est issu d'un croisement 'Souvenir de Thérèse Levet' (Levet, 1882) × 'Reine Emma des Pays-Bas' (Nabonnand, 1879)[1].
+'Général Gallieni' est un cultivar de rosier thé obtenu en 1899 par Gilbert Nabonnand dans sa pépinière de Golfe-Juan. Il est baptisé en hommage au général Joseph Gallieni (1849-1916), à l'époque gouverneur de Madagascar, et élevé à la dignité de maréchal de France en 1921 à titre posthume. Il est issu d'un croisement 'Souvenir de Thérèse Levet' (Levet, 1882) × 'Reine Emma des Pays-Bas' (Nabonnand, 1879).
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9n%C3%A9ral_Gallieni_(rose)</t>
+          <t>Général_Gallieni_(rose)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son buisson bien ramifié est vigoureux et très florifère, surtout sous les climats doux. Il peut s'élever à 200 cm pour une largeur de 90 cm à 180 cm. Ses boutons sont pointus et d'un rouge bordeaux. Ses fleurs évoluent vers le rouge ponceau et le cœur peut refléter des nuances crème[2]. Elles sont grandes, doubles (17-25 pétales) et pleines[3]. La floraison est remontante.
-Sa zone de rusticité est de 7b à 9b. Il aime la chaleur, se plaît dans les situations ensoleillées et supporte la mi-ombre en climat méditerranéen. Il supporte peu les hivers froids[4].
-Ce cultivar est toujours prisé des amateurs de roses historiques grâce à sa couleur originale et à son caractère très florifère[5]. Il est très présent en Italie, en Australie, en Nouvelle-Zélande et en Argentine. Ses tiges sont peu épineuses et ses roses s'adaptent bien en vase[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son buisson bien ramifié est vigoureux et très florifère, surtout sous les climats doux. Il peut s'élever à 200 cm pour une largeur de 90 cm à 180 cm. Ses boutons sont pointus et d'un rouge bordeaux. Ses fleurs évoluent vers le rouge ponceau et le cœur peut refléter des nuances crème. Elles sont grandes, doubles (17-25 pétales) et pleines. La floraison est remontante.
+Sa zone de rusticité est de 7b à 9b. Il aime la chaleur, se plaît dans les situations ensoleillées et supporte la mi-ombre en climat méditerranéen. Il supporte peu les hivers froids.
+Ce cultivar est toujours prisé des amateurs de roses historiques grâce à sa couleur originale et à son caractère très florifère. Il est très présent en Italie, en Australie, en Nouvelle-Zélande et en Argentine. Ses tiges sont peu épineuses et ses roses s'adaptent bien en vase.
 </t>
         </is>
       </c>
